--- a/extracteds/Cases/Compra_Candle_Alta.xlsx
+++ b/extracteds/Cases/Compra_Candle_Alta.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Ativo</t>
   </si>
@@ -60,7 +60,7 @@
     <t>AERI3</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-05-05 10:10:00</t>
+    <t xml:space="preserve">2022-05-17 10:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">2021-01-05 10:00:00</t>
@@ -75,6 +75,15 @@
     <t xml:space="preserve">2021-01-12 10:00:00</t>
   </si>
   <si>
+    <t>BBRK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-11 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-13 10:05:00</t>
+  </si>
+  <si>
     <t>BLUT4</t>
   </si>
   <si>
@@ -99,6 +108,15 @@
     <t xml:space="preserve">2021-01-07 10:00:00</t>
   </si>
   <si>
+    <t>GETT11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-02 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-19 10:20:00</t>
+  </si>
+  <si>
     <t>MEGA3</t>
   </si>
   <si>
@@ -114,7 +132,13 @@
     <t xml:space="preserve">2021-05-12 10:10:00</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-01-13 10:05:00</t>
+    <t>RCSL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-02 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-06 10:00:00</t>
   </si>
   <si>
     <t>RCSL4</t>
@@ -123,9 +147,6 @@
     <t xml:space="preserve">2022-03-11 10:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-01-06 10:00:00</t>
-  </si>
-  <si>
     <t>RRRP3</t>
   </si>
   <si>
@@ -135,6 +156,12 @@
     <t xml:space="preserve">2021-01-14 10:00:00</t>
   </si>
   <si>
+    <t>STBP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-08 10:00:00</t>
+  </si>
+  <si>
     <t>TASA4</t>
   </si>
   <si>
@@ -157,7 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comprar no fechamento para vender no dia seguinte com 1% de lucro ou no fechamento se:
- For um dia de alta, o candle atual não for engolfado pelo candle anterior(abertura e fechamento atual dentro da área do candle anterior) e não for uma sexta-feira.</t>
+ For um dia de alta igual ou superior a 0.2%(Candle azul), o candle atual não for engolfado pelo candle anterior(abertura e fechamento atual dentro da área do candle anterior) e não for uma sexta-feira.
+caseCompraCandleAlta.py
+01/01/2021 a 20/05/2022</t>
   </si>
 </sst>
 </file>
@@ -200,15 +229,12 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="1" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,11 +664,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A13" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="10" style="1" width="9.140625"/>
   </cols>
@@ -696,28 +722,28 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>0.80851063829787229</v>
+        <v>0.80434782608695654</v>
       </c>
       <c r="G2" s="2">
-        <v>0.40187944606565612</v>
+        <v>0.28159031152994624</v>
       </c>
       <c r="H2" s="2">
-        <v>4.2753132560176179e-003</v>
+        <v>3.060764255760285e-003</v>
       </c>
       <c r="I2" s="2">
-        <v>-5.6962025316455778e-002</v>
+        <v>-0.11187214611872143</v>
       </c>
       <c r="J2" s="2">
         <v>1.e-002</v>
@@ -732,7 +758,7 @@
         <v>468700</v>
       </c>
       <c r="N2">
-        <v>3361603.5502958582</v>
+        <v>3360717.7842565598</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +766,25 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>19</v>
       </c>
       <c r="F3" s="2">
-        <v>0.82568807339449546</v>
+        <v>0.8288288288288288</v>
       </c>
       <c r="G3" s="2">
-        <v>0.35410707606669672</v>
+        <v>0.37410707606669674</v>
       </c>
       <c r="H3" s="2">
-        <v>3.2486887712540984e-003</v>
+        <v>3.3703340186188894e-003</v>
       </c>
       <c r="I3" s="2">
         <v>-8.8425129087779664e-002</v>
@@ -776,7 +802,7 @@
         <v>106300</v>
       </c>
       <c r="N3">
-        <v>910051.47928994079</v>
+        <v>913229.15451895038</v>
       </c>
     </row>
     <row r="4">
@@ -784,84 +810,84 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="G4" s="2">
-        <v>0.31000000000000011</v>
+        <v>0.25443095622198991</v>
       </c>
       <c r="H4" s="2">
-        <v>1.0000000000000004e-002</v>
+        <v>3.2206450154682268e-003</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>-6.1403508771929904e-002</v>
       </c>
       <c r="J4" s="2">
         <v>1.e-002</v>
       </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4">
-        <v>136600</v>
+        <v>104100</v>
       </c>
       <c r="N4">
-        <v>810507.46268656722</v>
+        <v>1984101.7751479291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>338</v>
+        <v>139</v>
       </c>
       <c r="C5">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.91346153846153844</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0.51550453686963071</v>
+        <v>0.32000000000000012</v>
       </c>
       <c r="H5" s="2">
-        <v>4.9567743929772182e-003</v>
+        <v>1.0000000000000004e-002</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.10422535211267592</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>1.e-002</v>
       </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5">
-        <v>2958000</v>
+        <v>136600</v>
       </c>
       <c r="N5">
-        <v>34049913.313609466</v>
+        <v>795247.48201438854</v>
       </c>
     </row>
     <row r="6">
@@ -869,28 +895,28 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
-        <v>0.83177570093457942</v>
+        <v>0.91346153846153844</v>
       </c>
       <c r="G6" s="2">
-        <v>0.4076874296398092</v>
+        <v>0.51550453686963071</v>
       </c>
       <c r="H6" s="2">
-        <v>3.8101628938299924e-003</v>
+        <v>4.9567743929772182e-003</v>
       </c>
       <c r="I6" s="2">
-        <v>-7.5796411570853151e-002</v>
+        <v>-0.10422535211267592</v>
       </c>
       <c r="J6" s="2">
         <v>1.e-002</v>
@@ -902,10 +928,10 @@
         <v>27</v>
       </c>
       <c r="M6">
-        <v>125600</v>
+        <v>2958000</v>
       </c>
       <c r="N6">
-        <v>497420.7100591716</v>
+        <v>34115298.25072886</v>
       </c>
     </row>
     <row r="7">
@@ -913,28 +939,28 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>0.84375</v>
+        <v>0.82568807339449546</v>
       </c>
       <c r="G7" s="2">
-        <v>0.15070351075789432</v>
+        <v>0.39877167300954397</v>
       </c>
       <c r="H7" s="2">
-        <v>4.7094847111841974e-003</v>
+        <v>3.6584557156838894e-003</v>
       </c>
       <c r="I7" s="2">
-        <v>-3.5776614310645716e-002</v>
+        <v>-7.5796411570853151e-002</v>
       </c>
       <c r="J7" s="2">
         <v>1.e-002</v>
@@ -946,10 +972,10 @@
         <v>30</v>
       </c>
       <c r="M7">
-        <v>602800</v>
+        <v>125600</v>
       </c>
       <c r="N7">
-        <v>2642424.210526316</v>
+        <v>497272.88629737607</v>
       </c>
     </row>
     <row r="8">
@@ -957,28 +983,28 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="C8">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
-        <v>0.79824561403508776</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="G8" s="2">
-        <v>0.38668170594915302</v>
+        <v>0.1546891450287326</v>
       </c>
       <c r="H8" s="2">
-        <v>3.3919447890276579e-003</v>
+        <v>3.7729059763105511e-003</v>
       </c>
       <c r="I8" s="2">
-        <v>-7.7138065958636037e-002</v>
+        <v>-4.081632653061229e-002</v>
       </c>
       <c r="J8" s="2">
         <v>1.e-002</v>
@@ -990,10 +1016,10 @@
         <v>33</v>
       </c>
       <c r="M8">
-        <v>1974400</v>
+        <v>263400</v>
       </c>
       <c r="N8">
-        <v>8012700.2958579883</v>
+        <v>1391814.2857142857</v>
       </c>
     </row>
     <row r="9">
@@ -1001,28 +1027,28 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>334</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>0.87804878048780488</v>
+        <v>0.8125</v>
       </c>
       <c r="G9" s="2">
-        <v>0.4581953988604015</v>
+        <v>0.12676299031179758</v>
       </c>
       <c r="H9" s="2">
-        <v>5.5877487665902626e-003</v>
+        <v>3.9613434472436744e-003</v>
       </c>
       <c r="I9" s="2">
-        <v>-6.6666666666666763e-002</v>
+        <v>-3.5776614310645716e-002</v>
       </c>
       <c r="J9" s="2">
         <v>1.e-002</v>
@@ -1034,10 +1060,10 @@
         <v>36</v>
       </c>
       <c r="M9">
-        <v>182200</v>
+        <v>602800</v>
       </c>
       <c r="N9">
-        <v>2357717.9640718563</v>
+        <v>2601792</v>
       </c>
     </row>
     <row r="10">
@@ -1045,28 +1071,28 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C10">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D10">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2">
-        <v>0.86315789473684212</v>
+        <v>0.80530973451327437</v>
       </c>
       <c r="G10" s="2">
-        <v>0.40078568854896274</v>
+        <v>0.39921303426995508</v>
       </c>
       <c r="H10" s="2">
-        <v>4.2187967215680288e-003</v>
+        <v>3.5328587103535848e-003</v>
       </c>
       <c r="I10" s="2">
-        <v>-7.1635730858468638e-002</v>
+        <v>-7.7138065958636037e-002</v>
       </c>
       <c r="J10" s="2">
         <v>1.e-002</v>
@@ -1075,282 +1101,458 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>115100</v>
+        <v>1974400</v>
       </c>
       <c r="N10">
-        <v>2514389.8203592813</v>
+        <v>7995626.5306122452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C11">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>0.83809523809523812</v>
+        <v>0.86725663716814161</v>
       </c>
       <c r="G11" s="2">
-        <v>0.44634979633887384</v>
+        <v>0.34096245642260237</v>
       </c>
       <c r="H11" s="2">
-        <v>4.2509504413226077e-003</v>
+        <v>3.0173668709964812e-003</v>
       </c>
       <c r="I11" s="2">
-        <v>-5.9721598563089229e-002</v>
+        <v>-0.1785714285714286</v>
       </c>
       <c r="J11" s="2">
         <v>1.e-002</v>
       </c>
       <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
         <v>41</v>
       </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
       <c r="M11">
-        <v>348500</v>
+        <v>493700</v>
       </c>
       <c r="N11">
-        <v>1925540.4191616767</v>
+        <v>3038688.6297376095</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C12">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>0.83185840707964598</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="G12" s="2">
-        <v>0.53041508158771822</v>
+        <v>0.47819539886040152</v>
       </c>
       <c r="H12" s="2">
-        <v>4.6939387751125505e-003</v>
+        <v>5.6928023673857324e-003</v>
       </c>
       <c r="I12" s="2">
-        <v>-6.307977736549164e-002</v>
+        <v>-6.6666666666666763e-002</v>
       </c>
       <c r="J12" s="2">
         <v>1.e-002</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>278800</v>
+        <v>165300</v>
       </c>
       <c r="N12">
-        <v>2983334.4936708859</v>
+        <v>2305643.1486880467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C13">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2">
-        <v>0.94805194805194803</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G13" s="2">
-        <v>0.59836266901982571</v>
+        <v>0.41042923382834623</v>
       </c>
       <c r="H13" s="2">
-        <v>7.7709437535042301e-003</v>
+        <v>4.1880534064116966e-003</v>
       </c>
       <c r="I13" s="2">
-        <v>-4.8192771084337394e-002</v>
+        <v>-7.1635730858468638e-002</v>
       </c>
       <c r="J13" s="2">
         <v>1.e-002</v>
       </c>
       <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
         <v>46</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13">
+        <v>115100</v>
+      </c>
+      <c r="N13">
+        <v>2517287.7551020407</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>343</v>
+      </c>
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.32415606738950531</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3.1168852633606278e-003</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-5.2348993288590662e-002</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.e-002</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14">
+        <v>1490000</v>
+      </c>
+      <c r="N14">
+        <v>5623182.5072886301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>343</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+      <c r="D15">
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.83495145631067957</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.42634979633887388</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.1393184110570282e-003</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-5.9721598563089229e-002</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.e-002</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15">
+        <v>348500</v>
+      </c>
+      <c r="N15">
+        <v>1909856.2682215744</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>325</v>
+      </c>
+      <c r="C16">
+        <v>118</v>
+      </c>
+      <c r="D16">
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.83898305084745761</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.63788082386549061</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5.405769693775344e-003</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-5.4257095158597668e-002</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.e-002</v>
+      </c>
+      <c r="K16" t="s">
         <v>36</v>
       </c>
-      <c r="M13">
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16">
+        <v>278800</v>
+      </c>
+      <c r="N16">
+        <v>2986354.4615384615</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>343</v>
+      </c>
+      <c r="C17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.94936708860759489</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.61836266901982573</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.8273755572129834e-003</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-4.8192771084337394e-002</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.e-002</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17">
         <v>104800</v>
       </c>
-      <c r="N13">
-        <v>2192826.9461077843</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="N17">
+        <v>2153761.8075801749</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B15:M23"/>
+    <mergeCell ref="B19:M27"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>